--- a/config_11.24/fish_2d_fish_server.xlsx
+++ b/config_11.24/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -2093,7 +2093,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
+    <sheetView topLeftCell="B169" workbookViewId="0">
       <selection activeCell="N185" sqref="N185"/>
     </sheetView>
   </sheetViews>
@@ -7735,9 +7735,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O171" sqref="O171:O172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -14834,7 +14834,7 @@
         <v>1</v>
       </c>
       <c r="M150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -14881,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -14928,7 +14928,7 @@
         <v>1</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="M153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -15022,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -15069,7 +15069,7 @@
         <v>1</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -15116,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -15163,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15210,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15257,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="M159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15351,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="M161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15398,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="M162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15445,7 +15445,7 @@
         <v>1</v>
       </c>
       <c r="M163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="M164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15539,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="M165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15586,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="M166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15633,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="M167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15680,7 +15680,7 @@
         <v>1</v>
       </c>
       <c r="M168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -15727,7 +15727,7 @@
         <v>1</v>
       </c>
       <c r="M169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
